--- a/workspace-spring/스프링프로젝트구조계획.xlsx
+++ b/workspace-spring/스프링프로젝트구조계획.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="122">
   <si>
     <t>요청</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,10 +562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>public String search()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select * from book3 where name like('%검색어%')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,6 +635,46 @@
   </si>
   <si>
     <t>delete from book3 where idx=#{idx}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 묶어도 된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookList.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public ModelAndView search(String name)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public ModelAndView bookList(HashMap param)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public void bookInsert(BookDTO dto)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public ModelAndView bookModify(BookDTO dto)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update book3 set name=#{name}, where idx=#{idx}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public ModelAndView delete(int idx)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님 작성안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +682,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1181,7 +1217,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1190,10 +1226,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1205,15 +1241,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1228,7 +1258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1266,77 +1296,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,71 +1430,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1727,13 +1760,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K37"/>
+  <dimension ref="B1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -1745,46 +1778,46 @@
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="17.25" thickBot="1">
       <c r="D1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="36" t="s">
+    <row r="2" spans="2:11" ht="17.25" thickBot="1">
+      <c r="F2" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+    </row>
+    <row r="3" spans="2:11" ht="17.25" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="27" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="17.25" thickBot="1">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
@@ -1793,10 +1826,10 @@
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1804,632 +1837,980 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="17.25" thickBot="1">
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="2:11" ht="17.25" thickBot="1">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="2:11" ht="17.25" thickBot="1">
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="2:11" ht="17.25" thickBot="1">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26" t="s">
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="27"/>
-    </row>
-    <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="2:11" ht="17.25" thickBot="1">
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="17"/>
+      <c r="K10" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="17.25" thickBot="1">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26" t="s">
+      <c r="H12" s="24"/>
+      <c r="I12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="27"/>
-    </row>
-    <row r="13" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="2:11" ht="17.25" thickBot="1">
       <c r="B13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20" t="s">
+      <c r="J13" s="17"/>
+      <c r="K13" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="17.25" thickBot="1">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="2:11" ht="17.25" thickBot="1">
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="23" t="s">
+      <c r="J15" s="14"/>
+      <c r="K15" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11">
       <c r="B17" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" ht="17.25" thickBot="1">
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="41" t="s">
+    <row r="20" spans="2:11">
+      <c r="F20" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="60"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="55" t="s">
+      <c r="E21" s="58"/>
+      <c r="F21" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="51" t="s">
+      <c r="H21" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="45"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="46" t="s">
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45" t="s">
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="K22" s="45" t="s">
+      <c r="K22" s="38" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="40" t="s">
+    <row r="23" spans="2:11">
+      <c r="B23" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39" t="s">
+      <c r="H23" s="44"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="39"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="40"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="47" t="s">
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="34"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="39" t="s">
+      <c r="H25" s="44"/>
+      <c r="I25" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="39"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="47" t="s">
+      <c r="K25" s="33"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="I26" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="52"/>
-      <c r="I26" s="39" t="s">
+      <c r="J26" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="33"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="34"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39" t="s">
+      <c r="G28" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="44"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="33"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="44"/>
+      <c r="I29" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39" t="s">
+    <row r="30" spans="2:11">
+      <c r="B30" s="34"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="I31" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" s="33"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="34"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="44"/>
+      <c r="I33" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33" s="33"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="44"/>
+      <c r="I34" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="34"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="44"/>
+      <c r="I36" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="17.25" thickBot="1">
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="58"/>
+      <c r="F40" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="38"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="45"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41" s="38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="44"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42" s="33"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="34"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="44"/>
+      <c r="I44" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K44" s="33"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="K45" s="33"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="34"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E47" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F47" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="44"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K47" s="33"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" s="44"/>
+      <c r="I48" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K28" s="39"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="57" t="s">
+      <c r="J48" s="33"/>
+      <c r="K48" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="34"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="H50" s="44"/>
+      <c r="I50" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J50" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50" s="33"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="34"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" s="44"/>
+      <c r="I52" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J52" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="K52" s="33"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="44"/>
+      <c r="I53" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="34"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="52"/>
-      <c r="I29" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="40"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="52"/>
-      <c r="I31" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="K31" s="39"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="40"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="H33" s="52"/>
-      <c r="I33" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="J33" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="K33" s="39"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="39" t="s">
+      <c r="G55" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" s="44"/>
+      <c r="I55" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" s="52"/>
-      <c r="I36" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workspace-spring/스프링프로젝트구조계획.xlsx
+++ b/workspace-spring/스프링프로젝트구조계획.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2550" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="28680" yWindow="2550" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ex01" sheetId="1" r:id="rId1"/>
+    <sheet name="homePlus" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="190">
   <si>
     <t>요청</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,12 +678,308 @@
     <t>단일조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/list(orderby)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect:/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect:/view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from homeplus order by price #{asc/desc}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from homeplus where productName like '%${keyword}%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into homeplus values (…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from homeplus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day06_homeplus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> home()</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeplusController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from homeplus order by idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from homeplus where productName like '%${keyword}%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/list/{orderBy}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from homeplus order by price ${asc/desc}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가(입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가(처리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into homeplus values (…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect:/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeplusController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from homeplus where idx = #{idx}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from homeplus where idx = #{idx}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정(입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeplusController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update homeplus set … where idx = #{idx}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirect:/view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete homeplus where idx = #{idx}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,6 +1050,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -833,7 +1139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1249,6 +1555,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1258,7 +1649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1415,6 +1806,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1430,19 +1833,97 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1762,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1784,22 +2265,22 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="17.25" thickBot="1">
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="17.25" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="52"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="31" t="s">
         <v>6</v>
       </c>
@@ -2092,16 +2573,16 @@
         <v>39</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="1" t="s">
@@ -2114,20 +2595,20 @@
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="60"/>
+      <c r="G20" s="62"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="36"/>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="58"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="45" t="s">
         <v>76</v>
       </c>
@@ -2460,21 +2941,21 @@
       <c r="G37" s="50"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="36"/>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="58"/>
+      <c r="E40" s="53"/>
       <c r="F40" s="45" t="s">
         <v>76</v>
       </c>
@@ -2816,4 +3297,653 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="64.75" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="38"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="35"/>
+      <c r="C4" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="34"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="C11" s="33"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="34"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="34"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="34"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="17.25" thickBot="1"/>
+    <row r="25" spans="2:10">
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="91"/>
+      <c r="E25" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B26" s="6"/>
+      <c r="C26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="75"/>
+    </row>
+    <row r="28" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B28" s="76"/>
+      <c r="I28" s="77"/>
+    </row>
+    <row r="29" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B29" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="J29" s="78"/>
+    </row>
+    <row r="30" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B30" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="J30" s="81"/>
+    </row>
+    <row r="31" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B31" s="82"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="85"/>
+    </row>
+    <row r="32" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B32" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" s="78"/>
+    </row>
+    <row r="33" spans="2:10" ht="17.25" thickBot="1"/>
+    <row r="34" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B34" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="J34" s="81"/>
+    </row>
+    <row r="35" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B35" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" s="74"/>
+      <c r="J35" s="75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B36" s="76"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="90"/>
+    </row>
+    <row r="37" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B37" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" s="81"/>
+    </row>
+    <row r="38" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B38" s="76"/>
+    </row>
+    <row r="39" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B39" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="I39" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="J39" s="81"/>
+    </row>
+    <row r="40" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B41" s="76"/>
+    </row>
+    <row r="42" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42" s="71"/>
+      <c r="J42" s="78" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/workspace-spring/스프링프로젝트구조계획.xlsx
+++ b/workspace-spring/스프링프로젝트구조계획.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2550" windowWidth="29040" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="2550" windowWidth="29040" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ex01" sheetId="1" r:id="rId1"/>
     <sheet name="homePlus" sheetId="2" r:id="rId2"/>
+    <sheet name="1.11일 수업" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="239">
   <si>
     <t>요청</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -974,12 +975,208 @@
     <t>delete homeplus where idx = #{idx}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>회원가입(입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입(처리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인(입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인(처리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지(조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴(입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴(처리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기(입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기(처리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글읽기(조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글수정(입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글수정(처리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글삭제(입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글삭제(처리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지(처리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지(수정 입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/withdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/withdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public void join()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public ModelAndView join(MemberDTO dto)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public void login()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public ModelAndView login(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,6 +1256,53 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFCC0099"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1649,7 +1893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1806,6 +2050,93 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1839,92 +2170,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1933,6 +2270,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC0099"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2244,7 +2586,7 @@
   <dimension ref="B1:K55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2265,22 +2607,22 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="17.25" thickBot="1">
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="17.25" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="56"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="31" t="s">
         <v>6</v>
       </c>
@@ -2573,16 +2915,16 @@
         <v>39</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="1" t="s">
@@ -2595,20 +2937,20 @@
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="62"/>
+      <c r="G20" s="91"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="36"/>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="53"/>
+      <c r="E21" s="82"/>
       <c r="F21" s="45" t="s">
         <v>76</v>
       </c>
@@ -2941,21 +3283,21 @@
       <c r="G37" s="50"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="36"/>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="53"/>
+      <c r="E40" s="82"/>
       <c r="F40" s="45" t="s">
         <v>76</v>
       </c>
@@ -3303,8 +3645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3324,10 +3666,10 @@
       <c r="B3" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="45" t="s">
         <v>76</v>
       </c>
@@ -3639,20 +3981,20 @@
       <c r="C25" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="91"/>
-      <c r="E25" s="63" t="s">
+      <c r="D25" s="80"/>
+      <c r="E25" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="H25" s="65" t="s">
+      <c r="H25" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="I25" s="66" t="s">
+      <c r="I25" s="55" t="s">
         <v>1</v>
       </c>
       <c r="J25" s="8"/>
@@ -3665,10 +4007,10 @@
       <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="58"/>
       <c r="I26" s="9" t="s">
         <v>4</v>
       </c>
@@ -3680,262 +4022,262 @@
       <c r="B27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="71" t="s">
+      <c r="F27" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="72" t="s">
+      <c r="G27" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="I27" s="74" t="s">
+      <c r="I27" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="J27" s="75"/>
+      <c r="J27" s="64"/>
     </row>
     <row r="28" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B28" s="76"/>
-      <c r="I28" s="77"/>
+      <c r="B28" s="65"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="2:10" ht="17.25" thickBot="1">
       <c r="B29" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71" t="s">
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="I29" s="71" t="s">
+      <c r="I29" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="J29" s="78"/>
+      <c r="J29" s="67"/>
     </row>
     <row r="30" spans="2:10" ht="17.25" thickBot="1">
       <c r="B30" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="80" t="s">
+      <c r="D30" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80" t="s">
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="I30" s="80" t="s">
+      <c r="I30" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="J30" s="81"/>
+      <c r="J30" s="70"/>
     </row>
     <row r="31" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B31" s="82"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="85"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74"/>
     </row>
     <row r="32" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71" t="s">
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="I32" s="71" t="s">
+      <c r="I32" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="J32" s="78"/>
+      <c r="J32" s="67"/>
     </row>
     <row r="33" spans="2:10" ht="17.25" thickBot="1"/>
     <row r="34" spans="2:10" ht="17.25" thickBot="1">
       <c r="B34" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="79" t="s">
+      <c r="C34" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="80" t="s">
+      <c r="D34" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80" t="s">
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="J34" s="81"/>
+      <c r="J34" s="70"/>
     </row>
     <row r="35" spans="2:10" ht="17.25" thickBot="1">
       <c r="B35" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="C35" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74" t="s">
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="I35" s="74"/>
-      <c r="J35" s="75" t="s">
+      <c r="I35" s="63"/>
+      <c r="J35" s="64" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B36" s="76"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="90"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="79"/>
     </row>
     <row r="37" spans="2:10" ht="17.25" thickBot="1">
       <c r="B37" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="D37" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80" t="s">
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="I37" s="80" t="s">
+      <c r="I37" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="J37" s="81"/>
+      <c r="J37" s="70"/>
     </row>
     <row r="38" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B38" s="76"/>
+      <c r="B38" s="65"/>
     </row>
     <row r="39" spans="2:10" ht="17.25" thickBot="1">
       <c r="B39" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="79" t="s">
+      <c r="C39" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="80" t="s">
+      <c r="D39" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="71" t="s">
+      <c r="E39" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80" t="s">
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="I39" s="80" t="s">
+      <c r="I39" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="J39" s="81"/>
+      <c r="J39" s="70"/>
     </row>
     <row r="40" spans="2:10" ht="17.25" thickBot="1">
       <c r="B40" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="D40" s="74" t="s">
+      <c r="D40" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="E40" s="71" t="s">
+      <c r="E40" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74" t="s">
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="I40" s="74"/>
-      <c r="J40" s="75" t="s">
+      <c r="I40" s="63"/>
+      <c r="J40" s="64" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B41" s="76"/>
+      <c r="B41" s="65"/>
     </row>
     <row r="42" spans="2:10" ht="17.25" thickBot="1">
       <c r="B42" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="D42" s="71" t="s">
+      <c r="D42" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="E42" s="71" t="s">
+      <c r="E42" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71" t="s">
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="I42" s="71"/>
-      <c r="J42" s="78" t="s">
+      <c r="I42" s="60"/>
+      <c r="J42" s="67" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3946,4 +4288,551 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="3" spans="2:10" s="115" customFormat="1" ht="17.25">
+      <c r="B3" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="114"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="92"/>
+      <c r="C4" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="98"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="99"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="121" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+    </row>
+    <row r="9" spans="2:10" s="102" customFormat="1">
+      <c r="B9" s="99"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="121" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="98" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+    </row>
+    <row r="12" spans="2:10" s="102" customFormat="1">
+      <c r="B12" s="99"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="121" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="121" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="121" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+    </row>
+    <row r="16" spans="2:10" s="102" customFormat="1">
+      <c r="B16" s="99"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="121" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="121" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="121" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+    </row>
+    <row r="19" spans="2:10" s="102" customFormat="1">
+      <c r="B19" s="99"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="116" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="99"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="116" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+    </row>
+    <row r="25" spans="2:10" s="102" customFormat="1">
+      <c r="B25" s="99"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="116" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="E26" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+    </row>
+    <row r="27" spans="2:10" s="102" customFormat="1">
+      <c r="B27" s="99"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+    </row>
+    <row r="28" spans="2:10" s="104" customFormat="1">
+      <c r="B28" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+    </row>
+    <row r="29" spans="2:10" s="104" customFormat="1">
+      <c r="B29" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+    </row>
+    <row r="30" spans="2:10" s="108" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="106"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="116" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>